--- a/src/test/Resources/datatest/EXCEL_Get_Product_Info.xlsx
+++ b/src/test/Resources/datatest/EXCEL_Get_Product_Info.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +169,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -635,7 +656,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -837,6 +858,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="53">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="54">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="55">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s" s="56">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="57">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="58">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
